--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="TC Reg1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
+    <sheet name="TCReg1" sheetId="2" r:id="rId2"/>
+    <sheet name="TCReg2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Section</t>
   </si>
@@ -85,13 +85,55 @@
   </si>
   <si>
     <t>Authentication page is opened</t>
+  </si>
+  <si>
+    <t>TC Reg2</t>
+  </si>
+  <si>
+    <t>Verify that user can register using only valid email adress</t>
+  </si>
+  <si>
+    <t>Enter invalid e-mail address</t>
+  </si>
+  <si>
+    <t>pera#gmail.com</t>
+  </si>
+  <si>
+    <t>E-mail is entered and visible</t>
+  </si>
+  <si>
+    <t>Click "Create an account button"</t>
+  </si>
+  <si>
+    <t>User can`t registrer with invalid e-mail. Error message: "Invalid email address." is displayed.</t>
+  </si>
+  <si>
+    <t>Refresh page</t>
+  </si>
+  <si>
+    <t>Page is refreshed, error message is dissapeared. E-mail field is empty and ready for entering an e-mail.</t>
+  </si>
+  <si>
+    <t>pera@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter valid e-mail address (for next text enter e-mail in format pera+n@gmail.com…n = 1, 2, 3...)</t>
+  </si>
+  <si>
+    <t>TCReg1</t>
+  </si>
+  <si>
+    <t>TCReg2</t>
+  </si>
+  <si>
+    <t>E-mail is accepted, and user is forwarded to "CREATE AN ACCOUNT"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +148,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,10 +208,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -195,8 +248,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,13 +593,27 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -550,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,12 +734,192 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Section</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Verify that user can register using only valid email adress</t>
   </si>
   <si>
-    <t>Enter invalid e-mail address</t>
-  </si>
-  <si>
     <t>pera#gmail.com</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>pera@gmail.com</t>
   </si>
   <si>
-    <t>Enter valid e-mail address (for next text enter e-mail in format pera+n@gmail.com…n = 1, 2, 3...)</t>
-  </si>
-  <si>
     <t>TCReg1</t>
   </si>
   <si>
@@ -127,6 +121,21 @@
   </si>
   <si>
     <t>E-mail is accepted, and user is forwarded to "CREATE AN ACCOUNT"</t>
+  </si>
+  <si>
+    <t>Enter invalid e-mail address in "Email address" field</t>
+  </si>
+  <si>
+    <t>Leave "Email address" field empty</t>
+  </si>
+  <si>
+    <t>"Email address" field is empty</t>
+  </si>
+  <si>
+    <t>User can`t registrer with empty "Email address" field. Error message: "Invalid email address." is displayed.</t>
+  </si>
+  <si>
+    <t>Enter valid e-mail address  in "Email address" field(for next text enter e-mail in format pera+n@gmail.com…n = 1, 2, 3...)</t>
   </si>
 </sst>
 </file>
@@ -245,14 +254,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>21</v>
@@ -607,9 +616,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="4"/>
@@ -665,7 +674,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -676,7 +685,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -734,10 +743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,7 +774,7 @@
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="5"/>
@@ -777,7 +786,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -788,7 +797,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -841,13 +850,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -857,68 +866,96 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
         <v>27</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="8">
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3"/>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="8">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
     <sheet name="TCReg1" sheetId="2" r:id="rId2"/>
     <sheet name="TCReg2" sheetId="3" r:id="rId3"/>
+    <sheet name="TCReg3" sheetId="5" r:id="rId4"/>
+    <sheet name="TCReg4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>Section</t>
   </si>
@@ -90,9 +92,6 @@
     <t>TC Reg2</t>
   </si>
   <si>
-    <t>Verify that user can register using only valid email adress</t>
-  </si>
-  <si>
     <t>pera#gmail.com</t>
   </si>
   <si>
@@ -102,15 +101,6 @@
     <t>Click "Create an account button"</t>
   </si>
   <si>
-    <t>User can`t registrer with invalid e-mail. Error message: "Invalid email address." is displayed.</t>
-  </si>
-  <si>
-    <t>Refresh page</t>
-  </si>
-  <si>
-    <t>Page is refreshed, error message is dissapeared. E-mail field is empty and ready for entering an e-mail.</t>
-  </si>
-  <si>
     <t>pera@gmail.com</t>
   </si>
   <si>
@@ -132,10 +122,166 @@
     <t>"Email address" field is empty</t>
   </si>
   <si>
-    <t>User can`t registrer with empty "Email address" field. Error message: "Invalid email address." is displayed.</t>
-  </si>
-  <si>
     <t>Enter valid e-mail address  in "Email address" field(for next text enter e-mail in format pera+n@gmail.com…n = 1, 2, 3...)</t>
+  </si>
+  <si>
+    <t>TCReg3</t>
+  </si>
+  <si>
+    <t>Verify that user can create an account when register with valid e-mail</t>
+  </si>
+  <si>
+    <t>TC Reg3</t>
+  </si>
+  <si>
+    <t>Register with valid e-mail</t>
+  </si>
+  <si>
+    <t>Radio-button "Mr" is selected</t>
+  </si>
+  <si>
+    <t>Petar</t>
+  </si>
+  <si>
+    <t>First name is entered and visible</t>
+  </si>
+  <si>
+    <t>Verify that user have to fill all mandatory fields in order to create an account when register with valid e-mail</t>
+  </si>
+  <si>
+    <t>Petrovic</t>
+  </si>
+  <si>
+    <t>Last name is entered and visible</t>
+  </si>
+  <si>
+    <t>Already entered e-mail is visible in "Email" field</t>
+  </si>
+  <si>
+    <t>Click button "Register"</t>
+  </si>
+  <si>
+    <t>User can`t register with empty mandatory fields. Error message: "There are 6 errors
+You must register at least one phone number.
+passwd is required.
+address1 is required.
+city is required.
+The Zip/Postal code you've entered is invalid. It must follow this format: 00000
+This country requires you to choose a State." is displayed.</t>
+  </si>
+  <si>
+    <t>Enter password in "Password" field</t>
+  </si>
+  <si>
+    <t>Password is entered and represented with dots</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Date of birth is selected</t>
+  </si>
+  <si>
+    <t>Click radio-button "Mr" in "YOUR PERSONAL INFORMATION" section</t>
+  </si>
+  <si>
+    <t>Enter first name in "First name" field in "YOUR PERSONAL INFORMATION" section</t>
+  </si>
+  <si>
+    <t>Enter last name in "Last name" field in "YOUR PERSONAL INFORMATION" section</t>
+  </si>
+  <si>
+    <t>Check if already entered e-mail is visible in "Email" field in "YOUR PERSONAL INFORMATION" section</t>
+  </si>
+  <si>
+    <t>Check if already entered first name is visible in "First name" field in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>Already entered first name is visible in "First name" field</t>
+  </si>
+  <si>
+    <t>Already entered last name is visible in "First name" field</t>
+  </si>
+  <si>
+    <t>Check if already entered last name is visible in "Last name" field in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>Enter address in "Address" field in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>Vrbina 2</t>
+  </si>
+  <si>
+    <t>Address is entered and visible</t>
+  </si>
+  <si>
+    <t>Select state from "State" dropdown menu</t>
+  </si>
+  <si>
+    <t>Select date of birth in "Date of birth" dropdown-menus</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Enter city in "City" field in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>City is entered and visible</t>
+  </si>
+  <si>
+    <t>State is entered and visible</t>
+  </si>
+  <si>
+    <t>Enter postal code in "Zip/Postal Code" field in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>Postal code is entered and visible</t>
+  </si>
+  <si>
+    <t>Enter mobile phone number in "Mobile phone" field in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>Mobile phone number is entered and visible</t>
+  </si>
+  <si>
+    <t>Enter address alias in "Assign an address alias for future reference"  in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>066111222</t>
+  </si>
+  <si>
+    <t>Vrbina</t>
+  </si>
+  <si>
+    <t>Address alias is entered and visible</t>
+  </si>
+  <si>
+    <t>Click "Register" button</t>
+  </si>
+  <si>
+    <t>User is registered and forwarded to "MY ACCOUNT" page</t>
+  </si>
+  <si>
+    <t>Verify that user can register using valid e-mail adress</t>
+  </si>
+  <si>
+    <t>TCReg4</t>
+  </si>
+  <si>
+    <t>Verify that user can`t register using invalid e-mail adress</t>
+  </si>
+  <si>
+    <t>User can`t register with empty "Email address" field. Error message: "Invalid email address." is displayed.</t>
+  </si>
+  <si>
+    <t>User can`t register with invalid e-mail. Error message: "Invalid email address." is displayed.</t>
+  </si>
+  <si>
+    <t>E-mail is accepted, and user is forwarded to "CREATE AN ACCOUNT" page</t>
   </si>
 </sst>
 </file>
@@ -180,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -216,6 +362,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -224,7 +394,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,6 +432,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>21</v>
@@ -616,13 +811,41 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,10 +966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -845,117 +1068,603 @@
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="8">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="45">
-      <c r="A13" s="8">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="8">
-        <v>7</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="8">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3"/>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15"/>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15"/>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="165">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19">
+        <v>8</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="21"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="22">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="22">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="22">
+        <v>11</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="22">
+        <v>12</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22">
+        <v>14</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4">
+        <v>21000</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="22">
+        <v>15</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="22">
+        <v>16</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="22">
+        <v>17</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>Section</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Navigate to:</t>
   </si>
   <si>
-    <t>http://automationpractice.com/index.php</t>
-  </si>
-  <si>
     <t>Click "Sign In" button</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Click "Create an account button"</t>
   </si>
   <si>
-    <t>pera@gmail.com</t>
-  </si>
-  <si>
     <t>TCReg1</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>TCReg3</t>
   </si>
   <si>
-    <t>Verify that user can create an account when register with valid e-mail</t>
-  </si>
-  <si>
     <t>TC Reg3</t>
   </si>
   <si>
@@ -146,30 +137,12 @@
     <t>First name is entered and visible</t>
   </si>
   <si>
-    <t>Verify that user have to fill all mandatory fields in order to create an account when register with valid e-mail</t>
-  </si>
-  <si>
     <t>Petrovic</t>
   </si>
   <si>
     <t>Last name is entered and visible</t>
   </si>
   <si>
-    <t>Already entered e-mail is visible in "Email" field</t>
-  </si>
-  <si>
-    <t>Click button "Register"</t>
-  </si>
-  <si>
-    <t>User can`t register with empty mandatory fields. Error message: "There are 6 errors
-You must register at least one phone number.
-passwd is required.
-address1 is required.
-city is required.
-The Zip/Postal code you've entered is invalid. It must follow this format: 00000
-This country requires you to choose a State." is displayed.</t>
-  </si>
-  <si>
     <t>Enter password in "Password" field</t>
   </si>
   <si>
@@ -191,21 +164,6 @@
     <t>Enter last name in "Last name" field in "YOUR PERSONAL INFORMATION" section</t>
   </si>
   <si>
-    <t>Check if already entered e-mail is visible in "Email" field in "YOUR PERSONAL INFORMATION" section</t>
-  </si>
-  <si>
-    <t>Check if already entered first name is visible in "First name" field in "YOUR ADDRESS" section</t>
-  </si>
-  <si>
-    <t>Already entered first name is visible in "First name" field</t>
-  </si>
-  <si>
-    <t>Already entered last name is visible in "First name" field</t>
-  </si>
-  <si>
-    <t>Check if already entered last name is visible in "Last name" field in "YOUR ADDRESS" section</t>
-  </si>
-  <si>
     <t>Enter address in "Address" field in "YOUR ADDRESS" section</t>
   </si>
   <si>
@@ -266,15 +224,9 @@
     <t>User is registered and forwarded to "MY ACCOUNT" page</t>
   </si>
   <si>
-    <t>Verify that user can register using valid e-mail adress</t>
-  </si>
-  <si>
     <t>TCReg4</t>
   </si>
   <si>
-    <t>Verify that user can`t register using invalid e-mail adress</t>
-  </si>
-  <si>
     <t>User can`t register with empty "Email address" field. Error message: "Invalid email address." is displayed.</t>
   </si>
   <si>
@@ -282,6 +234,39 @@
   </si>
   <si>
     <t>E-mail is accepted, and user is forwarded to "CREATE AN ACCOUNT" page</t>
+  </si>
+  <si>
+    <t>ppetrovic</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/</t>
+  </si>
+  <si>
+    <t>Verify that user can use only valid e-mail adress for registration</t>
+  </si>
+  <si>
+    <t>Verify that user can`t use invalid e-mail adress for registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user have to fill all mandatory fields in order to register and creata an account </t>
+  </si>
+  <si>
+    <t>Enter e-mail in "Email" field in "YOUR PERSONAL INFORMATION" section</t>
+  </si>
+  <si>
+    <t>Enter first name in "First name" field in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>Enter last name in "First name" field in "YOUR ADDRESS" section</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>pera+1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -394,7 +379,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -430,33 +415,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,7 +760,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -811,10 +815,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -825,24 +829,24 @@
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -857,7 +861,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -897,7 +901,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -908,12 +912,12 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
+      <c r="C5" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -947,11 +951,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -960,6 +964,9 @@
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -968,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -987,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -998,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1009,7 +1016,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1020,12 +1027,12 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
+      <c r="C5" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1059,11 +1066,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -1073,13 +1080,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1089,11 +1096,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1107,6 +1114,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1116,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1135,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1146,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1157,7 +1165,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1168,12 +1176,12 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
+      <c r="C5" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1207,11 +1215,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -1221,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1237,11 +1245,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1251,11 +1259,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1265,11 +1273,11 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1278,23 +1286,26 @@
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="101" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="21" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
@@ -1305,20 +1316,20 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C1" s="20"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5"/>
+      <c r="B2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="20"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -1327,23 +1338,23 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="20"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
+      <c r="C5" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1359,7 +1370,7 @@
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1377,11 +1388,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -1391,11 +1402,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1405,13 +1416,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1421,251 +1432,241 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>27</v>
+        <v>77</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="165">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="8">
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8">
+      <c r="A14" s="30">
         <v>7</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19">
+      <c r="A15" s="31"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15">
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="22">
+      <c r="B17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="22">
+    <row r="19" spans="1:6">
+      <c r="A19" s="15">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>58</v>
+      <c r="B19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22">
+      <c r="A20" s="15">
         <v>11</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>61</v>
+      <c r="B20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22">
+      <c r="A21" s="15">
         <v>12</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>68</v>
+      <c r="B21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22">
+      <c r="A22" s="15">
         <v>13</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>65</v>
+      <c r="B22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="22">
+    <row r="23" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A23" s="15">
         <v>14</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="4">
-        <v>21000</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>71</v>
+      <c r="B23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="22">
+      <c r="A24" s="15">
         <v>15</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>75</v>
+      <c r="B24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="22">
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="15">
         <v>16</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>77</v>
+      <c r="B25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="22">
-        <v>17</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F14:F16"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="TCReg2" sheetId="3" r:id="rId3"/>
     <sheet name="TCReg3" sheetId="5" r:id="rId4"/>
     <sheet name="TCReg4" sheetId="4" r:id="rId5"/>
+    <sheet name="TCReg5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>Section</t>
   </si>
@@ -266,7 +267,31 @@
     <t>21000</t>
   </si>
   <si>
-    <t>pera+1@gmail.com</t>
+    <t>TCReg5</t>
+  </si>
+  <si>
+    <t>Verify that user cannot register twice with the same email adress</t>
+  </si>
+  <si>
+    <t>TC Reg5</t>
+  </si>
+  <si>
+    <t>User is registered with e-mail:</t>
+  </si>
+  <si>
+    <t>Enter e-mail address in "Email address" field</t>
+  </si>
+  <si>
+    <t>User can`t register twice with the same e-mail address. Error message: "An account using this email address has already been registered. Please enter a valid password or request a new one." is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pera+3@gmail.com</t>
+  </si>
+  <si>
+    <t>pera+4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pera+4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -311,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -371,6 +396,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -379,7 +417,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -462,6 +500,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -757,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -850,6 +893,20 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -975,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1083,7 +1140,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>24</v>
@@ -1125,7 +1182,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,7 +1355,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1451,7 +1508,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>24</v>
@@ -1669,4 +1726,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="35"/>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="75">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,18 @@
     <sheet name="TCReg3" sheetId="5" r:id="rId4"/>
     <sheet name="TCReg4" sheetId="4" r:id="rId5"/>
     <sheet name="TCReg5" sheetId="6" r:id="rId6"/>
+    <sheet name="TCLogIn1" sheetId="7" r:id="rId7"/>
+    <sheet name="TCLogIn2" sheetId="8" r:id="rId8"/>
+    <sheet name="TCLogIn3" sheetId="9" r:id="rId9"/>
+    <sheet name="TCLogIn4" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="124">
   <si>
     <t>Section</t>
   </si>
@@ -45,9 +50,6 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>TC Reg1</t>
-  </si>
-  <si>
     <t>Test Case ID:</t>
   </si>
   <si>
@@ -78,18 +80,9 @@
     <t>Navigate to:</t>
   </si>
   <si>
-    <t>Click "Sign In" button</t>
-  </si>
-  <si>
     <t>Verify that when clicking on "Sign In" button opens authetication page</t>
   </si>
   <si>
-    <t>Authentication page is opened</t>
-  </si>
-  <si>
-    <t>TC Reg2</t>
-  </si>
-  <si>
     <t>pera#gmail.com</t>
   </si>
   <si>
@@ -123,9 +116,6 @@
     <t>TCReg3</t>
   </si>
   <si>
-    <t>TC Reg3</t>
-  </si>
-  <si>
     <t>Register with valid e-mail</t>
   </si>
   <si>
@@ -249,9 +239,6 @@
     <t>Verify that user can`t use invalid e-mail adress for registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user have to fill all mandatory fields in order to register and creata an account </t>
-  </si>
-  <si>
     <t>Enter e-mail in "Email" field in "YOUR PERSONAL INFORMATION" section</t>
   </si>
   <si>
@@ -273,25 +260,142 @@
     <t>Verify that user cannot register twice with the same email adress</t>
   </si>
   <si>
-    <t>TC Reg5</t>
-  </si>
-  <si>
     <t>User is registered with e-mail:</t>
   </si>
   <si>
     <t>Enter e-mail address in "Email address" field</t>
   </si>
   <si>
-    <t>User can`t register twice with the same e-mail address. Error message: "An account using this email address has already been registered. Please enter a valid password or request a new one." is displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pera+3@gmail.com</t>
-  </si>
-  <si>
-    <t>pera+4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pera+4@gmail.com</t>
+    <t xml:space="preserve">Verify that user have to fill all mandatory fields in order to register and create an account </t>
+  </si>
+  <si>
+    <t>LogIn</t>
+  </si>
+  <si>
+    <t>TsSu2</t>
+  </si>
+  <si>
+    <t>TCLogIn1</t>
+  </si>
+  <si>
+    <t>TClogIn1</t>
+  </si>
+  <si>
+    <t>User is registered with e-mail/password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pera@gmail.com / ppetrovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pera@gmail.com</t>
+  </si>
+  <si>
+    <t>Cursor is visible inside "Email address" field</t>
+  </si>
+  <si>
+    <t>Click on "Email address" field in "ALREADY REGISTERED?" section</t>
+  </si>
+  <si>
+    <t>Cursor is visible inside "Password" field. "Email address" field turned green with green check mark</t>
+  </si>
+  <si>
+    <t>Enter e-mail address in "Email address" field in "ALREADY REGISTERED?" section</t>
+  </si>
+  <si>
+    <t>Click on "Password" field in "ALREADY REGISTERED?" section in "ALREADY REGISTERED?" section</t>
+  </si>
+  <si>
+    <t>Enter password in "Password" field in "ALREADY REGISTERED?" section</t>
+  </si>
+  <si>
+    <t>User logged in successfully and forwarded to "MY ACCOUNT" page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pera+5@gmail.com</t>
+  </si>
+  <si>
+    <t>pera+5@gmail.com</t>
+  </si>
+  <si>
+    <t>TCLogIn2</t>
+  </si>
+  <si>
+    <t>Verify that user can`t log in using invalid credentials</t>
+  </si>
+  <si>
+    <t>Verify that user can log in using credentials which are used for registration</t>
+  </si>
+  <si>
+    <t>TClogIn2</t>
+  </si>
+  <si>
+    <t>Test Data1</t>
+  </si>
+  <si>
+    <t>Test Data2</t>
+  </si>
+  <si>
+    <t>asdfgh</t>
+  </si>
+  <si>
+    <t>lkj@gmail.com</t>
+  </si>
+  <si>
+    <t>User failed to register twice with the same e-mail address. Error message: "An account using this email address has already been registered. Please enter a valid password or request a new one." is displayed.</t>
+  </si>
+  <si>
+    <t>TClogIn3</t>
+  </si>
+  <si>
+    <t>Verify that user can`t log in using empty credentials</t>
+  </si>
+  <si>
+    <t>User failed to log in. Error message: "An email address required." is displayed. "Sign in" button is still visible</t>
+  </si>
+  <si>
+    <t>User failed to log in. Error message: "Authentication failed." is displayed. "Sign in" button is still visible.</t>
+  </si>
+  <si>
+    <t>User is logged in with valid credentials</t>
+  </si>
+  <si>
+    <t>Click on "Sign out" button on "MY ACCOUNT " page</t>
+  </si>
+  <si>
+    <t>"AUTHENTICATION" page is opened</t>
+  </si>
+  <si>
+    <t>Click on "Sign In" button on "MAIN" page</t>
+  </si>
+  <si>
+    <t>Click on "Sign in" button on "AUTHENTICATION"page</t>
+  </si>
+  <si>
+    <t>Click on "Sign in" button on "AUTHENTICATION" page</t>
+  </si>
+  <si>
+    <t>Click on "Sign In"  on "MAIN" page</t>
+  </si>
+  <si>
+    <t>Verify that user can log out when click on "Sign out" button on  "MY ACCOUNT " page</t>
+  </si>
+  <si>
+    <t>TClogIn4</t>
+  </si>
+  <si>
+    <t>User successsfuly logged out and forwarded back to "AUTHENTICATION" page</t>
+  </si>
+  <si>
+    <t>TCLogIn3</t>
+  </si>
+  <si>
+    <t>TCLogIn4</t>
+  </si>
+  <si>
+    <t>TCMA1</t>
+  </si>
+  <si>
+    <t>Verify that registered user can update the address in "MY ACCOUNT" section</t>
   </si>
 </sst>
 </file>
@@ -417,7 +521,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,9 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -479,6 +580,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,11 +603,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -800,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,88 +961,162 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="4"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>83</v>
+      <c r="C6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="43"/>
+      <c r="B8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="43"/>
+      <c r="B9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="43"/>
+      <c r="B10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -933,10 +1131,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -944,10 +1142,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -958,23 +1156,170 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="35"/>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="35"/>
+      <c r="B7" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>73</v>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="28"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -985,22 +1330,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1008,11 +1353,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -1033,7 +1378,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,10 +1393,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1059,10 +1404,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1073,23 +1418,23 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1100,22 +1445,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1123,11 +1468,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -1136,14 +1481,14 @@
       <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>89</v>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1153,11 +1498,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="11" t="s">
-        <v>71</v>
+      <c r="D10" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1182,7 +1527,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,10 +1542,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1208,10 +1553,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1222,23 +1567,23 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1249,22 +1594,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1272,11 +1617,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -1286,13 +1631,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1302,11 +1647,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="11" t="s">
-        <v>70</v>
+      <c r="D10" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1316,11 +1661,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
+      <c r="D11" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1330,11 +1675,11 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="11" t="s">
-        <v>69</v>
+      <c r="D12" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1362,7 +1707,7 @@
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="101" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
@@ -1370,23 +1715,23 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="C1" s="19"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="19"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -1395,23 +1740,23 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1422,22 +1767,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -1445,11 +1790,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -1459,11 +1804,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="18"/>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1473,13 +1818,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1489,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1505,13 +1850,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1520,192 +1865,192 @@
       <c r="A13" s="8">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>7</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="32"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="16">
+      <c r="A16" s="33"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="15">
         <v>2000</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>10</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>49</v>
+      <c r="B19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>11</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>55</v>
+      <c r="B20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>12</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>53</v>
+      <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>13</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>81</v>
+      <c r="B22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>14</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>61</v>
+      <c r="B23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>15</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>64</v>
+      <c r="B24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>16</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17" t="s">
-        <v>67</v>
+      <c r="B25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1732,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1748,10 +2093,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1759,10 +2104,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1774,10 +2119,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="E4" s="3"/>
@@ -1786,21 +2131,21 @@
     <row r="5" spans="1:6">
       <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="35"/>
-      <c r="B6" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>88</v>
+      <c r="B6" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1811,22 +2156,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1834,11 +2179,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -1848,13 +2193,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1864,14 +2209,573 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="11" t="s">
-        <v>87</v>
+      <c r="D11" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="35"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="35"/>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="35"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="35"/>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="45">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="35"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="35"/>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="TCLogIn2" sheetId="8" r:id="rId8"/>
     <sheet name="TCLogIn3" sheetId="9" r:id="rId9"/>
     <sheet name="TCLogIn4" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
+    <sheet name="TCMA1" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
   <si>
     <t>Section</t>
   </si>
@@ -396,6 +397,48 @@
   </si>
   <si>
     <t>Verify that registered user can update the address in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>Log in with valid credentials (e-mail/password)</t>
+  </si>
+  <si>
+    <t>Click on "MY ADDRESSES" tab</t>
+  </si>
+  <si>
+    <t>User is forwarded to "MY ADDRESSES" page</t>
+  </si>
+  <si>
+    <t>Click on "Update" button</t>
+  </si>
+  <si>
+    <t>User is forwarded to "YOUR ADDRESSES" page</t>
+  </si>
+  <si>
+    <t>Click on "Address" field</t>
+  </si>
+  <si>
+    <t>Cursor is visible in "Address" field</t>
+  </si>
+  <si>
+    <t>"Address" field is empty</t>
+  </si>
+  <si>
+    <t>Meseceva 10</t>
+  </si>
+  <si>
+    <t>Enter new address in "Address" field</t>
+  </si>
+  <si>
+    <t>New address is entered in "Address" field</t>
+  </si>
+  <si>
+    <t>Click "Save" button</t>
+  </si>
+  <si>
+    <t>New address is saved. User is forwarded to "MY ADDRESSES" page. Updated address is visible in "VRBINA" section.</t>
+  </si>
+  <si>
+    <t>Delete present address from "Address" field</t>
   </si>
 </sst>
 </file>
@@ -521,7 +564,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,6 +625,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,27 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -961,7 +1007,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -977,7 +1023,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="37"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -991,7 +1037,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1051,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="37"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1065,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="38"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1079,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1049,7 +1095,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="43"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="14" t="s">
         <v>82</v>
       </c>
@@ -1063,7 +1109,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="43"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="14" t="s">
         <v>82</v>
       </c>
@@ -1077,7 +1123,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="43"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="14" t="s">
         <v>82</v>
       </c>
@@ -1094,10 +1140,10 @@
       <c r="B11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="32" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1116,7 +1162,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,7 +1202,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1167,7 +1213,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1224,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
@@ -1189,7 +1235,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="35"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="27" t="s">
         <v>110</v>
       </c>
@@ -1247,6 +1293,220 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="44"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="44"/>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="45">
+      <c r="A15" s="14">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1303,7 +1563,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1314,7 +1574,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1678,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1429,7 +1689,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1827,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1578,7 +1838,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +2000,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1751,7 +2011,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1878,40 +2138,40 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="31">
+      <c r="A14" s="40">
         <v>7</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="15">
         <v>2000</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14">
@@ -2118,7 +2378,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2129,7 +2389,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2400,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="27" t="s">
         <v>78</v>
       </c>
@@ -2233,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2274,7 +2534,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2285,7 +2545,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2296,7 +2556,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
@@ -2412,7 +2672,7 @@
         <v>115</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="29" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="4"/>
@@ -2476,7 +2736,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2488,26 +2748,26 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="35"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="30"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="35"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="31"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
@@ -2630,7 +2890,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="29" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="4"/>
@@ -2693,7 +2953,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2704,7 +2964,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2715,7 +2975,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
@@ -2771,7 +3031,7 @@
         <v>114</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="29" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="4"/>

--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="TCLogIn3" sheetId="9" r:id="rId9"/>
     <sheet name="TCLogIn4" sheetId="10" r:id="rId10"/>
     <sheet name="TCMA1" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="TCMA2" sheetId="12" r:id="rId12"/>
+    <sheet name="TCMA3" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="153">
   <si>
     <t>Section</t>
   </si>
@@ -439,6 +440,51 @@
   </si>
   <si>
     <t>Delete present address from "Address" field</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add second address in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>TCMA2</t>
+  </si>
+  <si>
+    <t>Click on "Address (Line 2)" field</t>
+  </si>
+  <si>
+    <t>Enter new address in "Address (Line 2)" field</t>
+  </si>
+  <si>
+    <t>Vetrova 22</t>
+  </si>
+  <si>
+    <t>TCMA3</t>
+  </si>
+  <si>
+    <t>Verify that registered user can remove second address in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>My account section</t>
+  </si>
+  <si>
+    <t>TsSu3</t>
+  </si>
+  <si>
+    <t>Delete the adress on  "Address (Line 2)" field</t>
+  </si>
+  <si>
+    <t>Address is deleted</t>
+  </si>
+  <si>
+    <t>Cursor is visible in "Address (Line 2)" field</t>
+  </si>
+  <si>
+    <t>New address is entered in "Address (Line 2)" field</t>
+  </si>
+  <si>
+    <t>Second address is saved. User is forwarded to "MY ADDRESSES" page. Second address is visible in "VRBINA" section.</t>
+  </si>
+  <si>
+    <t>Second address is removed. User is forwarded to "MY ADDRESSES" page. Second address is not visible in "VRBINA" section.</t>
   </si>
 </sst>
 </file>
@@ -564,7 +610,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,15 +671,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +714,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -970,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1007,7 +1047,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1023,7 +1063,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1077,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1091,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1105,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1119,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1095,7 +1135,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="14" t="s">
         <v>82</v>
       </c>
@@ -1109,7 +1149,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="36"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="14" t="s">
         <v>82</v>
       </c>
@@ -1123,7 +1163,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="14" t="s">
         <v>82</v>
       </c>
@@ -1137,20 +1177,54 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="32" t="s">
+        <v>145</v>
+      </c>
       <c r="B11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>123</v>
       </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="34"/>
+      <c r="B13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1202,7 +1276,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1213,7 +1287,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1298,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
@@ -1235,7 +1309,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="27" t="s">
         <v>110</v>
       </c>
@@ -1296,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1325,7 +1399,7 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="31" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="5"/>
@@ -1337,7 +1411,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1348,7 +1422,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1359,7 +1433,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
@@ -1403,7 +1477,7 @@
       <c r="C9" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="9"/>
@@ -1417,7 +1491,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>126</v>
       </c>
       <c r="E10" s="9"/>
@@ -1431,7 +1505,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>128</v>
       </c>
       <c r="E11" s="8"/>
@@ -1475,7 +1549,7 @@
       <c r="C14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>134</v>
       </c>
       <c r="E14" s="4"/>
@@ -1489,7 +1563,7 @@
         <v>135</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>136</v>
       </c>
       <c r="E15" s="4"/>
@@ -1508,12 +1582,398 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43"/>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="14">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43"/>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1563,7 +2023,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1574,7 +2034,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +2138,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1689,7 +2149,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +2287,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1838,7 +2298,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2000,7 +2460,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2011,7 +2471,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2138,40 +2598,40 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="40">
+      <c r="A14" s="39">
         <v>7</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="41"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="42"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="15">
         <v>2000</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14">
@@ -2378,7 +2838,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2389,7 +2849,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2400,7 +2860,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
         <v>78</v>
       </c>
@@ -2534,7 +2994,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2545,7 +3005,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2556,7 +3016,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
@@ -2672,7 +3132,7 @@
         <v>115</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="4"/>
@@ -2736,7 +3196,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2748,26 +3208,26 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="29"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="30"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
@@ -2890,7 +3350,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="4"/>
@@ -2953,7 +3413,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2964,7 +3424,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2975,7 +3435,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
         <v>85</v>
       </c>
@@ -3031,7 +3491,7 @@
         <v>114</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="4"/>

--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="TCMA1" sheetId="11" r:id="rId11"/>
     <sheet name="TCMA2" sheetId="12" r:id="rId12"/>
     <sheet name="TCMA3" sheetId="13" r:id="rId13"/>
+    <sheet name="TCMA4" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="191">
   <si>
     <t>Section</t>
   </si>
@@ -485,6 +486,120 @@
   </si>
   <si>
     <t>Second address is removed. User is forwarded to "MY ADDRESSES" page. Second address is not visible in "VRBINA" section.</t>
+  </si>
+  <si>
+    <t>TsSu4</t>
+  </si>
+  <si>
+    <t>TCMA4</t>
+  </si>
+  <si>
+    <t>Verify that registered user can update personal informations in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>Click on "MY PERSONAL INFORMATION" tab</t>
+  </si>
+  <si>
+    <t>User is forwarded to "YOUR PERSONAL INFORMATION" page</t>
+  </si>
+  <si>
+    <t>Click on "Mrs" radio button</t>
+  </si>
+  <si>
+    <t>"Mrs" radio button is selected</t>
+  </si>
+  <si>
+    <t>Click on "First name" field</t>
+  </si>
+  <si>
+    <t>Cursor is visible in "First name" field</t>
+  </si>
+  <si>
+    <t>Delete actual name in "First name" field</t>
+  </si>
+  <si>
+    <t>Actual name is deleted</t>
+  </si>
+  <si>
+    <t>Enter new name in "First name" filed</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>New name in "First name" is entered and visible</t>
+  </si>
+  <si>
+    <t>Click on "Last name" field</t>
+  </si>
+  <si>
+    <t>Cursor is visible in "Last name" field</t>
+  </si>
+  <si>
+    <t>Delete actual last name in "Last name" field</t>
+  </si>
+  <si>
+    <t>Actual last name is deleted</t>
+  </si>
+  <si>
+    <t>Enter new last name in "Last name" filed</t>
+  </si>
+  <si>
+    <t>New last name in "Last name" is entered and visible</t>
+  </si>
+  <si>
+    <t>Days dropdown menu is opened</t>
+  </si>
+  <si>
+    <t>Select day from dropdown menu</t>
+  </si>
+  <si>
+    <t>Day is selected</t>
+  </si>
+  <si>
+    <t>Months dropdown menu is opened</t>
+  </si>
+  <si>
+    <t>Click on days dropdown menu of "Date of birth" section</t>
+  </si>
+  <si>
+    <t>Click on months dropdown menu of "Date of birth" section</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Month is selected</t>
+  </si>
+  <si>
+    <t>Click on years dropdown menu of "Date of birth" section</t>
+  </si>
+  <si>
+    <t>Years dropdown menu is opened</t>
+  </si>
+  <si>
+    <t>Select year from dropdown menu</t>
+  </si>
+  <si>
+    <t>Select month from dropdown menu</t>
+  </si>
+  <si>
+    <t>Year is selected</t>
+  </si>
+  <si>
+    <t>Click on "Current Password" field</t>
+  </si>
+  <si>
+    <t>Cursor is visible in "Current Password" field</t>
+  </si>
+  <si>
+    <t>Enter valid password</t>
+  </si>
+  <si>
+    <t>User successfully updated personal information. Confirmation message: "Your personal information has been successfully updated." is appeared.</t>
+  </si>
+  <si>
+    <t>Maric</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1219,6 +1334,19 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="B14" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1784,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1966,6 +2094,384 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43"/>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="14">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14">
+        <v>12</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14">
+        <v>13</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14">
+        <v>14</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14">
+        <v>15</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14">
+        <v>16</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1999</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14">
+        <v>17</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="14">
+        <v>18</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="60">
+      <c r="A26" s="14">
+        <v>19</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3154,7 +3660,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="TCMA2" sheetId="12" r:id="rId12"/>
     <sheet name="TCMA3" sheetId="13" r:id="rId13"/>
     <sheet name="TCMA4" sheetId="14" r:id="rId14"/>
+    <sheet name="TCMA5" sheetId="15" r:id="rId15"/>
+    <sheet name="TCMA6" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="208">
   <si>
     <t>Section</t>
   </si>
@@ -275,9 +277,6 @@
     <t>LogIn</t>
   </si>
   <si>
-    <t>TsSu2</t>
-  </si>
-  <si>
     <t>TCLogIn1</t>
   </si>
   <si>
@@ -467,9 +466,6 @@
     <t>My account section</t>
   </si>
   <si>
-    <t>TsSu3</t>
-  </si>
-  <si>
     <t>Delete the adress on  "Address (Line 2)" field</t>
   </si>
   <si>
@@ -488,9 +484,6 @@
     <t>Second address is removed. User is forwarded to "MY ADDRESSES" page. Second address is not visible in "VRBINA" section.</t>
   </si>
   <si>
-    <t>TsSu4</t>
-  </si>
-  <si>
     <t>TCMA4</t>
   </si>
   <si>
@@ -600,6 +593,66 @@
   </si>
   <si>
     <t>Maric</t>
+  </si>
+  <si>
+    <t>TCMA5</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add a wish list in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>Click on "MY WISHLIST" tab</t>
+  </si>
+  <si>
+    <t>User is forwarded to "MY WISHLIST" page</t>
+  </si>
+  <si>
+    <t>Click on "Name" field</t>
+  </si>
+  <si>
+    <t>Cursor is visible in "Name" field</t>
+  </si>
+  <si>
+    <t>Enter wishlist name</t>
+  </si>
+  <si>
+    <t>Name is entered and visible</t>
+  </si>
+  <si>
+    <t>Click on "Save" button</t>
+  </si>
+  <si>
+    <t>New wishlist table is made with entered name</t>
+  </si>
+  <si>
+    <t>List of dresses</t>
+  </si>
+  <si>
+    <t>TSu2</t>
+  </si>
+  <si>
+    <t>TSu3</t>
+  </si>
+  <si>
+    <t>TSu4</t>
+  </si>
+  <si>
+    <t>TSu5</t>
+  </si>
+  <si>
+    <t>TCMA6</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add four wish lists in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>List of blouses</t>
+  </si>
+  <si>
+    <t>List of shirts</t>
+  </si>
+  <si>
+    <t>List of T-shirts</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1238,13 +1291,13 @@
         <v>81</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1252,13 +1305,13 @@
     <row r="8" spans="1:6">
       <c r="A8" s="35"/>
       <c r="B8" s="14" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1266,13 +1319,13 @@
     <row r="9" spans="1:6">
       <c r="A9" s="35"/>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1280,29 +1333,29 @@
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="35"/>
       <c r="B10" s="14" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="A11" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>123</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1310,13 +1363,13 @@
     <row r="12" spans="1:6" ht="34.5" customHeight="1">
       <c r="A12" s="33"/>
       <c r="B12" s="14" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1324,29 +1377,58 @@
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="34"/>
       <c r="B13" s="14" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>144</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="4"/>
       <c r="B14" s="14" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="4"/>
+      <c r="B15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="4"/>
+      <c r="B16" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1382,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1393,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1428,10 +1510,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1439,7 +1521,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="43"/>
       <c r="B7" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="21"/>
       <c r="E7" s="3"/>
@@ -1457,7 +1539,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>15</v>
@@ -1474,11 +1556,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -1517,7 +1599,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1528,7 +1610,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1563,10 +1645,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1600,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -1616,11 +1698,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -1630,11 +1712,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1644,11 +1726,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1658,11 +1740,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1672,13 +1754,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>134</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1688,11 +1770,11 @@
         <v>7</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1731,7 +1813,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1742,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1777,10 +1859,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1814,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -1830,11 +1912,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -1844,11 +1926,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1858,11 +1940,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1872,13 +1954,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D13" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1888,11 +1970,11 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1913,7 +1995,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1931,7 +2013,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1942,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1977,10 +2059,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2014,13 +2096,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -2030,11 +2112,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -2044,11 +2126,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2058,11 +2140,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2072,11 +2154,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2086,11 +2168,11 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2110,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2129,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -2140,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -2175,10 +2257,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2212,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -2228,11 +2310,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -2242,11 +2324,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2256,11 +2338,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2270,11 +2352,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2284,13 +2366,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2300,11 +2382,11 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2314,11 +2396,11 @@
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2328,13 +2410,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2344,11 +2426,11 @@
         <v>11</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2358,13 +2440,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2374,11 +2456,11 @@
         <v>13</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2388,13 +2470,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2404,11 +2486,11 @@
         <v>15</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2418,13 +2500,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C23" s="4">
         <v>1999</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2434,11 +2516,11 @@
         <v>17</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2448,7 +2530,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>67</v>
@@ -2464,14 +2546,560 @@
         <v>19</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43"/>
+      <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43"/>
+      <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="14">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="14">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14">
+        <v>16</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="14">
+        <v>17</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2579,11 +3207,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -2694,11 +3322,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -2711,7 +3339,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
@@ -2843,11 +3471,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -3079,7 +3707,7 @@
         <v>71</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>20</v>
@@ -3371,7 +3999,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3405,11 +4033,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -3422,7 +4050,7 @@
         <v>79</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
@@ -3439,7 +4067,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -3478,7 +4106,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -3489,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -3524,10 +4152,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3561,11 +4189,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -3575,11 +4203,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -3589,10 +4217,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
@@ -3605,11 +4233,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3619,7 +4247,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>67</v>
@@ -3635,11 +4263,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3678,7 +4306,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -3690,7 +4318,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3728,10 +4356,10 @@
     <row r="6" spans="1:7">
       <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="D6" s="30"/>
       <c r="F6" s="3"/>
@@ -3749,10 +4377,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -3769,12 +4397,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
@@ -3784,12 +4412,12 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
@@ -3799,13 +4427,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>20</v>
@@ -3818,12 +4446,12 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3833,10 +4461,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>67</v>
@@ -3852,12 +4480,12 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3897,7 +4525,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -3908,7 +4536,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -3943,10 +4571,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3963,7 +4591,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
@@ -3980,11 +4608,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -3994,11 +4622,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>

--- a/data/ProjekatData.xlsx
+++ b/data/ProjekatData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11820" tabRatio="653" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,22 @@
     <sheet name="TCMA3" sheetId="13" r:id="rId13"/>
     <sheet name="TCMA4" sheetId="14" r:id="rId14"/>
     <sheet name="TCMA5" sheetId="15" r:id="rId15"/>
-    <sheet name="TCMA6" sheetId="16" r:id="rId16"/>
+    <sheet name="TCMA6" sheetId="24" r:id="rId16"/>
+    <sheet name="TCMA7" sheetId="16" r:id="rId17"/>
+    <sheet name="TCAddPr1" sheetId="17" r:id="rId18"/>
+    <sheet name="TCAddPr2" sheetId="18" r:id="rId19"/>
+    <sheet name="TCAddPr3" sheetId="19" r:id="rId20"/>
+    <sheet name="TCAddPr4" sheetId="20" r:id="rId21"/>
+    <sheet name="TCAddPr5" sheetId="21" r:id="rId22"/>
+    <sheet name="TCAddPr6" sheetId="22" r:id="rId23"/>
+    <sheet name="TCAddPr7" sheetId="23" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="264">
   <si>
     <t>Section</t>
   </si>
@@ -85,9 +93,6 @@
     <t>Navigate to:</t>
   </si>
   <si>
-    <t>Verify that when clicking on "Sign In" button opens authetication page</t>
-  </si>
-  <si>
     <t>pera#gmail.com</t>
   </si>
   <si>
@@ -238,9 +243,6 @@
     <t>http://automationpractice.com/</t>
   </si>
   <si>
-    <t>Verify that user can use only valid e-mail adress for registration</t>
-  </si>
-  <si>
     <t>Verify that user can`t use invalid e-mail adress for registration</t>
   </si>
   <si>
@@ -385,9 +387,6 @@
     <t>TClogIn4</t>
   </si>
   <si>
-    <t>User successsfuly logged out and forwarded back to "AUTHENTICATION" page</t>
-  </si>
-  <si>
     <t>TCLogIn3</t>
   </si>
   <si>
@@ -598,9 +597,6 @@
     <t>TCMA5</t>
   </si>
   <si>
-    <t>Verify that registered user can add a wish list in "MY ACCOUNT" section</t>
-  </si>
-  <si>
     <t>Click on "MY WISHLIST" tab</t>
   </si>
   <si>
@@ -643,9 +639,6 @@
     <t>TCMA6</t>
   </si>
   <si>
-    <t>Verify that registered user can add four wish lists in "MY ACCOUNT" section</t>
-  </si>
-  <si>
     <t>List of blouses</t>
   </si>
   <si>
@@ -653,6 +646,189 @@
   </si>
   <si>
     <t>List of T-shirts</t>
+  </si>
+  <si>
+    <t>Verify that when user click on "Sign In" button opens authetication page</t>
+  </si>
+  <si>
+    <t>Adding products to cart</t>
+  </si>
+  <si>
+    <t>TSu6</t>
+  </si>
+  <si>
+    <t>TCAddPr1</t>
+  </si>
+  <si>
+    <t>TCAddPr2</t>
+  </si>
+  <si>
+    <t>TCAddPr3</t>
+  </si>
+  <si>
+    <t>TCAddPr4</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add one product to cart and proceed with purchase</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add three same products in cart and proceed with purchase</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add three different products in cart and proceed with purchase</t>
+  </si>
+  <si>
+    <t>TCAddPr5</t>
+  </si>
+  <si>
+    <t>TCAddPr6</t>
+  </si>
+  <si>
+    <t>Verify that registered user can change quantity of added product from cart and proceed with purchase</t>
+  </si>
+  <si>
+    <t>Click on "Return to Home" button (house icon)</t>
+  </si>
+  <si>
+    <t>User forwarded to home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Add to cart" button of the product </t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Pop-out window appears with, product info, confirmation message:"Product successfully added to your shopping cart", and two buttons: "Continue shopping" and "Proceed to checkout".</t>
+  </si>
+  <si>
+    <t>User successfully logged out and forwarded back to "AUTHENTICATION" page</t>
+  </si>
+  <si>
+    <t>Click on "Proceed to checkout" button on pop-out window</t>
+  </si>
+  <si>
+    <t>"SHOPPING - CART SUMMARY" page is opened. Added product is visible in cart with all info.</t>
+  </si>
+  <si>
+    <t>Click on "Proceed to checkout" button in "SHOPPING - CART SUMMARY" page</t>
+  </si>
+  <si>
+    <t>Quantity of added product is changed to 3</t>
+  </si>
+  <si>
+    <t>Increase quantity of added product in  "SHOPPING - CART SUMMARY" page</t>
+  </si>
+  <si>
+    <t>Click on "Continue shopping" button on pop-out window</t>
+  </si>
+  <si>
+    <t>Pop-out window is closed.</t>
+  </si>
+  <si>
+    <t>Pop-out window appears with product info, number of products in cart, confirmation message:"Product successfully added to your shopping cart", and two buttons: "Continue shopping" and "Proceed to checkout".</t>
+  </si>
+  <si>
+    <t>"SHOPPING - CART SUMMARY" page is opened. Added product is visible in cart with all info and 3 for quantity.</t>
+  </si>
+  <si>
+    <t>Printed Dress</t>
+  </si>
+  <si>
+    <t>Printed Summer Dress</t>
+  </si>
+  <si>
+    <t>"SHOPPING - CART SUMMARY" page is opened. Added products are visible in cart with all info.</t>
+  </si>
+  <si>
+    <t>Click on "Proceed to checkout" button on "SHOPPING - CART SUMMARY" page</t>
+  </si>
+  <si>
+    <t>User is forwarded on "ADDRESSES" page and  can proceed with purchase by clicking on button "Proceed to checkout" on "ADDRESSES" page.</t>
+  </si>
+  <si>
+    <t>TCAddPr7</t>
+  </si>
+  <si>
+    <t>Verify that registered user can remove a product from "SHOPPING - CART SUMMARY" page</t>
+  </si>
+  <si>
+    <t>Click on "Delete" button on added product table (trashcant icon)</t>
+  </si>
+  <si>
+    <t>The product is removed from the cart. Confirmation message: "Your shoppin cart is empty." appeared.</t>
+  </si>
+  <si>
+    <t>Pop out window is closed. There is "1 product" annotation on "Cart" tab</t>
+  </si>
+  <si>
+    <t>Hower cursor over "Cart" tab</t>
+  </si>
+  <si>
+    <t>Dropdown menu appeared with product in cart.</t>
+  </si>
+  <si>
+    <t>Click on "X" button on added product in "Cart" dropdown menu</t>
+  </si>
+  <si>
+    <t>The product is removed from the cart. Annotation "(empty)" is appeared on "Cart" tab.</t>
+  </si>
+  <si>
+    <t>User is forwarded on "AUTHENTICATION" page and  can`t proceed without registration.</t>
+  </si>
+  <si>
+    <t>User is not registered</t>
+  </si>
+  <si>
+    <t>Verify that unregistered user can add product in cart but can`t proceed with purchase without registration</t>
+  </si>
+  <si>
+    <t>Verify that user can use valid e-mail adress for registration</t>
+  </si>
+  <si>
+    <t>Verify that user can`t register twice with the same email adress</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add four wishlists in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add a wishlist in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>Verify that registered user can remove a product from "Cart" tab on homepage</t>
+  </si>
+  <si>
+    <t>TCMA7</t>
+  </si>
+  <si>
+    <t>Verify that registered user can remove a wishlist in "MY ACCOUNT" section</t>
+  </si>
+  <si>
+    <t>Click on "X" button in "List of Dresses" wishlist table</t>
+  </si>
+  <si>
+    <t>Wishlist is removed</t>
+  </si>
+  <si>
+    <t>Check default product quantity</t>
+  </si>
+  <si>
+    <t>Default product quantity is 1.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Check product quantity</t>
+  </si>
+  <si>
+    <t>One product is added in cart.</t>
+  </si>
+  <si>
+    <t>Check if one piece of all three products are added to cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if one piece of product is added in cart. </t>
   </si>
 </sst>
 </file>
@@ -778,7 +954,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,9 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -831,9 +1004,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -847,6 +1017,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -858,6 +1031,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,6 +1072,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1178,9 +1365,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1215,229 +1402,344 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="33"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="34"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>76</v>
+      <c r="C6" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>82</v>
+      <c r="A7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="35"/>
-      <c r="B8" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>96</v>
+      <c r="A8" s="34"/>
+      <c r="B8" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="35"/>
-      <c r="B9" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>119</v>
+      <c r="A9" s="34"/>
+      <c r="B9" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="35"/>
-      <c r="B10" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>120</v>
+      <c r="A10" s="34"/>
+      <c r="B10" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>122</v>
+      <c r="A11" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>137</v>
+      <c r="A12" s="32"/>
+      <c r="B12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="34"/>
-      <c r="B13" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>143</v>
+      <c r="A13" s="32"/>
+      <c r="B13" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="4"/>
-      <c r="B14" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>152</v>
+      <c r="A14" s="32"/>
+      <c r="B14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="4"/>
-      <c r="B15" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>189</v>
+      <c r="A15" s="32"/>
+      <c r="B15" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="4"/>
-      <c r="B16" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>204</v>
+      <c r="A16" s="32"/>
+      <c r="B16" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="33"/>
+      <c r="B17" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1">
+      <c r="A18" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="36"/>
+      <c r="B19" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="36"/>
+      <c r="B20" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="36"/>
+      <c r="B21" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="36"/>
+      <c r="B22" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="36"/>
+      <c r="B23" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="37"/>
+      <c r="B24" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1446,7 +1748,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1475,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1486,7 +1788,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1497,33 +1799,33 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="43"/>
-      <c r="B7" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="21"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
@@ -1539,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>15</v>
@@ -1556,11 +1858,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -1581,7 +1883,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1599,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1609,8 +1911,8 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>122</v>
+      <c r="B2" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1621,7 +1923,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1632,23 +1934,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1682,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -1698,11 +2000,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="28" t="s">
-        <v>125</v>
+      <c r="D10" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -1712,69 +2014,69 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="28" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>132</v>
+      <c r="B14" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="45">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>134</v>
+      <c r="B15" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="28" t="s">
-        <v>135</v>
+      <c r="D15" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1794,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1813,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -1823,8 +2125,8 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>137</v>
+      <c r="B2" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -1835,7 +2137,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1846,23 +2148,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1896,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -1912,11 +2214,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="28" t="s">
-        <v>125</v>
+      <c r="D10" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -1926,55 +2228,55 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="28" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>140</v>
+      <c r="B13" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>148</v>
+        <v>138</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="45">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>7</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>134</v>
+      <c r="B14" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="28" t="s">
-        <v>149</v>
+      <c r="D14" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1994,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2013,7 +2315,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -2023,8 +2325,8 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>143</v>
+      <c r="B2" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -2035,7 +2337,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2046,23 +2348,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2096,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -2112,11 +2414,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="28" t="s">
-        <v>125</v>
+      <c r="D10" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -2126,53 +2428,53 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="28" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>145</v>
+      <c r="B13" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="28" t="s">
-        <v>146</v>
+      <c r="D13" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="45">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>7</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>134</v>
+      <c r="B14" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="28" t="s">
-        <v>150</v>
+      <c r="D14" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2193,7 +2495,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2211,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -2221,8 +2523,8 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>152</v>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -2233,7 +2535,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2244,23 +2546,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2294,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -2310,11 +2612,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="28" t="s">
-        <v>154</v>
+      <c r="D10" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -2324,233 +2626,233 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>159</v>
+      <c r="B13" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="28" t="s">
-        <v>160</v>
+      <c r="D13" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>7</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>161</v>
+      <c r="B14" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>9</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>166</v>
+      <c r="B16" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="28" t="s">
-        <v>167</v>
+      <c r="D16" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>10</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>168</v>
+      <c r="B17" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>169</v>
+        <v>184</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>11</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>174</v>
+      <c r="B18" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="28" t="s">
-        <v>170</v>
+      <c r="D18" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>12</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>171</v>
+      <c r="B19" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>172</v>
+      <c r="D19" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>13</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>175</v>
+      <c r="B20" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="28" t="s">
-        <v>173</v>
+      <c r="D20" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>14</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>181</v>
+      <c r="B21" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>15</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>178</v>
+      <c r="B22" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="28" t="s">
-        <v>179</v>
+      <c r="D22" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>16</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>180</v>
+      <c r="B23" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="C23" s="4">
         <v>1999</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>182</v>
+      <c r="D23" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>17</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>183</v>
+      <c r="B24" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>18</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>185</v>
+      <c r="B25" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="60">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>19</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>134</v>
+      <c r="B26" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="28" t="s">
-        <v>186</v>
+      <c r="D26" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2571,7 +2873,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2589,7 +2891,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -2599,8 +2901,8 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>189</v>
+      <c r="B2" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -2611,7 +2913,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2622,23 +2924,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2672,13 +2974,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -2688,11 +2990,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="28" t="s">
-        <v>191</v>
+      <c r="D10" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -2702,41 +3004,41 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>196</v>
+      <c r="B13" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="28" t="s">
-        <v>197</v>
+      <c r="D13" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2754,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2775,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -2785,8 +3087,8 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>204</v>
+      <c r="B2" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -2797,7 +3099,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2808,23 +3110,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2858,13 +3160,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -2874,11 +3176,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="28" t="s">
-        <v>191</v>
+      <c r="D10" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -2888,41 +3190,197 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="10" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>196</v>
+      <c r="B13" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="28" t="s">
-        <v>197</v>
+      <c r="D13" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2932,11 +3390,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="28" t="s">
-        <v>191</v>
+      <c r="D14" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="8"/>
@@ -2946,41 +3404,41 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>9</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>196</v>
+      <c r="B17" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="28" t="s">
-        <v>197</v>
+      <c r="D17" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2990,11 +3448,11 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="28" t="s">
-        <v>191</v>
+      <c r="D18" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
@@ -3004,41 +3462,41 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>13</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>196</v>
+      <c r="B21" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="28" t="s">
-        <v>197</v>
+      <c r="D21" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3048,11 +3506,11 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="28" t="s">
-        <v>191</v>
+      <c r="D22" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
@@ -3062,44 +3520,465 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="C23" s="16"/>
       <c r="D23" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>17</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>196</v>
+      <c r="B25" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="28" t="s">
-        <v>197</v>
+      <c r="D25" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="75">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="13">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3117,7 +3996,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3135,7 +4014,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -3146,7 +4025,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -3157,7 +4036,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3168,12 +4047,12 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>68</v>
+      <c r="C5" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3207,11 +4086,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -3227,12 +4106,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3250,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -3260,8 +4139,8 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>69</v>
+      <c r="B2" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -3272,10 +4151,10 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5"/>
@@ -3283,12 +4162,1104 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="36"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="90">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="90">
+      <c r="A15" s="8">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="45">
+      <c r="A16" s="13">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="13">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="90">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="90">
+      <c r="A15" s="8">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="45">
+      <c r="A16" s="13">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="13">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3322,11 +5293,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -3336,13 +5307,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -3352,11 +5323,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -3399,7 +5370,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -3410,7 +5381,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -3421,7 +5392,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3432,12 +5403,12 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>68</v>
+      <c r="C5" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3471,11 +5442,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -3485,13 +5456,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -3501,11 +5472,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -3515,11 +5486,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -3529,11 +5500,11 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -3554,14 +5525,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="101" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="19" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
@@ -3572,9 +5543,9 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="C1" s="18"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
@@ -3583,9 +5554,9 @@
         <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="C2" s="18"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -3594,23 +5565,23 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>68</v>
+      <c r="C5" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3626,7 +5597,7 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3644,11 +5615,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="C8" s="22"/>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
@@ -3658,11 +5629,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="C9" s="17"/>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -3672,13 +5643,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -3688,13 +5659,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -3704,13 +5675,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -3720,191 +5691,191 @@
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="39">
+      <c r="A14" s="41">
         <v>7</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="40"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="41"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="15">
+      <c r="A16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="14">
         <v>2000</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>10</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>11</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>12</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>48</v>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>13</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>14</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>15</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>16</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3932,7 +5903,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3950,7 +5921,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -3961,7 +5932,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -3972,7 +5943,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3983,23 +5954,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>94</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4033,11 +6004,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -4047,13 +6018,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -4063,11 +6034,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -4087,8 +6058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4106,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -4117,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -4128,7 +6099,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4139,23 +6110,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4189,11 +6160,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -4203,11 +6174,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -4217,57 +6188,57 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>114</v>
+      <c r="B14" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="28" t="s">
-        <v>93</v>
+      <c r="D14" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -4287,8 +6258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4306,7 +6277,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -4318,7 +6289,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4330,7 +6301,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4342,26 +6313,26 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="29"/>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="27"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="28"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
@@ -4377,10 +6348,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -4397,12 +6368,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
@@ -4412,12 +6383,12 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
@@ -4427,65 +6398,65 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="45">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="45">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>114</v>
+      <c r="B14" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="28" t="s">
-        <v>108</v>
+      <c r="E14" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -4507,7 +6478,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4525,7 +6496,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
@@ -4536,7 +6507,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="3"/>
@@ -4547,7 +6518,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4558,23 +6529,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>68</v>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4591,7 +6562,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
@@ -4608,25 +6579,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>113</v>
+      <c r="B10" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="28" t="s">
-        <v>107</v>
+      <c r="D10" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
